--- a/SPPSApi/Doc/Template/FS0610_PlanMake.xlsx
+++ b/SPPSApi/Doc/Template/FS0610_PlanMake.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="77">
   <si>
     <t>工程名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,7 +273,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +285,12 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1069,26 +1075,884 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:EI1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <cols>
+    <col min="1" max="10" width="9" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9" style="5" customWidth="1"/>
+    <col min="15" max="139" width="9" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:139" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:EI1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <cols>
+    <col min="1" max="10" width="9" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9" style="5" customWidth="1"/>
+    <col min="15" max="139" width="9" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:139" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SPPSApi/Doc/Template/FS0610_PlanMake.xlsx
+++ b/SPPSApi/Doc/Template/FS0610_PlanMake.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="139">
   <si>
     <t>工程名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,6 +264,192 @@
   <si>
     <t>工厂</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31日白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30日夜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31日夜 </t>
   </si>
 </sst>
 </file>
@@ -635,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
+      <selection activeCell="CE3" sqref="CE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -880,190 +1066,190 @@
         <v>62</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0610_PlanMake.xlsx
+++ b/SPPSApi/Doc/Template/FS0610_PlanMake.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="140">
   <si>
     <t>工程名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,6 +450,10 @@
   </si>
   <si>
     <t xml:space="preserve">31日夜 </t>
+  </si>
+  <si>
+    <t>供应商编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -819,11 +823,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EI1"/>
+  <dimension ref="A1:EJ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="EI1" sqref="EI1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -842,9 +844,10 @@
     <col min="16" max="33" width="6.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="34" max="95" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="96" max="139" width="8.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="12.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
@@ -1261,6 +1264,9 @@
       </c>
       <c r="EI1" s="1" t="s">
         <v>138</v>
+      </c>
+      <c r="EJ1" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1272,11 +1278,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EI1"/>
+  <dimension ref="A1:EJ1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1284,9 +1288,10 @@
     <col min="11" max="11" width="11" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="9" style="5" customWidth="1"/>
     <col min="15" max="139" width="9" style="3" customWidth="1"/>
+    <col min="140" max="140" width="12.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
@@ -1703,6 +1708,9 @@
       </c>
       <c r="EI1" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="EJ1" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1714,11 +1722,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EI1"/>
+  <dimension ref="A1:EJ1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1726,9 +1732,10 @@
     <col min="11" max="11" width="11" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="9" style="5" customWidth="1"/>
     <col min="15" max="139" width="9" style="3" customWidth="1"/>
+    <col min="140" max="140" width="12.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
@@ -2145,6 +2152,9 @@
       </c>
       <c r="EI1" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="EJ1" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0610_PlanMake.xlsx
+++ b/SPPSApi/Doc/Template/FS0610_PlanMake.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="80">
   <si>
     <t>工程名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,194 +266,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">19日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">21日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">24日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">25日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">26日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">27日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">28日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">29日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">30日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31日白 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">19日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">21日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">24日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">25日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">26日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">27日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">28日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">29日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">30日夜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31日夜 </t>
-  </si>
-  <si>
     <t>供应商编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1日白</t>
+  </si>
+  <si>
+    <t>1日夜</t>
   </si>
 </sst>
 </file>
@@ -825,7 +645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EJ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="EK1" sqref="EK1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -842,8 +664,9 @@
     <col min="14" max="14" width="6.44140625" style="5" customWidth="1"/>
     <col min="15" max="15" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="33" width="6.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="95" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="96" max="139" width="8.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="77" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="78" max="95" width="6.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="96" max="139" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="140" max="140" width="12.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1080,193 +903,193 @@
         <v>62</v>
       </c>
       <c r="BZ1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="EJ1" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EJ1" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1710,7 +1533,7 @@
         <v>62</v>
       </c>
       <c r="EJ1" s="4" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2154,7 +1977,7 @@
         <v>62</v>
       </c>
       <c r="EJ1" s="4" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0610_PlanMake.xlsx
+++ b/SPPSApi/Doc/Template/FS0610_PlanMake.xlsx
@@ -509,7 +509,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -821,16 +821,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
-      <selection activeCell="CE3" sqref="CE3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="EI1" sqref="EI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="9" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9" style="5" customWidth="1"/>
-    <col min="15" max="139" width="9" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="49" style="5" customWidth="1"/>
+    <col min="12" max="13" width="12.6640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="6.44140625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="33" width="6.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="95" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="96" max="139" width="8.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:139" x14ac:dyDescent="0.25">
@@ -1255,7 +1266,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1697,7 +1708,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2139,6 +2150,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SPPSApi/Doc/Template/FS0610_PlanMake.xlsx
+++ b/SPPSApi/Doc/Template/FS0610_PlanMake.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="77">
   <si>
     <t>工程名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,10 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>品名（中）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工程号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,12 +262,6 @@
   <si>
     <t>供应商编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1日白</t>
-  </si>
-  <si>
-    <t>1日夜</t>
   </si>
 </sst>
 </file>
@@ -283,7 +271,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,13 +282,8 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -333,7 +316,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -643,39 +626,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EJ1"/>
+  <dimension ref="A1:EI1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="EK1" sqref="EK1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.77734375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="6.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="49" style="5" customWidth="1"/>
-    <col min="12" max="13" width="12.6640625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="6.44140625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="33" width="6.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="77" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="78" max="95" width="6.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="96" max="139" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="12.109375" style="5" customWidth="1"/>
+    <col min="1" max="10" width="9" style="5" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="5" customWidth="1"/>
+    <col min="12" max="14" width="9" style="5" customWidth="1"/>
+    <col min="15" max="139" width="9" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>64</v>
@@ -687,7 +655,7 @@
         <v>66</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>67</v>
@@ -702,10 +670,10 @@
         <v>70</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>0</v>
@@ -903,10 +871,10 @@
         <v>62</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="CB1" s="1" t="s">
         <v>3</v>
@@ -1087,902 +1055,11 @@
       </c>
       <c r="EI1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="EJ1" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EJ1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="10" width="9" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9" style="5" customWidth="1"/>
-    <col min="15" max="139" width="9" style="3" customWidth="1"/>
-    <col min="140" max="140" width="12.109375" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:140" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BS1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BU1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BW1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BX1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BY1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="EJ1" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EJ1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="10" width="9" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9" style="5" customWidth="1"/>
-    <col min="15" max="139" width="9" style="3" customWidth="1"/>
-    <col min="140" max="140" width="12.109375" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:140" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BS1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BU1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BW1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BX1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BY1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="EJ1" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SPPSApi/Doc/Template/FS0610_PlanMake.xlsx
+++ b/SPPSApi/Doc/Template/FS0610_PlanMake.xlsx
@@ -632,7 +632,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="9" style="5" customWidth="1"/>
+    <col min="1" max="2" width="9" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="5" customWidth="1"/>
+    <col min="4" max="10" width="9" style="5" customWidth="1"/>
     <col min="11" max="11" width="12.109375" style="5" customWidth="1"/>
     <col min="12" max="14" width="9" style="5" customWidth="1"/>
     <col min="15" max="139" width="9" style="3" customWidth="1"/>
